--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Znrf3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Znrf3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H2">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.036231666666667</v>
+        <v>1.325636333333333</v>
       </c>
       <c r="N2">
-        <v>3.108695</v>
+        <v>3.976909</v>
       </c>
       <c r="O2">
-        <v>0.09018629024029708</v>
+        <v>0.1236745921078505</v>
       </c>
       <c r="P2">
-        <v>0.09018629024029708</v>
+        <v>0.1236745921078504</v>
       </c>
       <c r="Q2">
-        <v>0.3836754823105556</v>
+        <v>1.044459145700222</v>
       </c>
       <c r="R2">
-        <v>3.453079340795</v>
+        <v>9.400132311302</v>
       </c>
       <c r="S2">
-        <v>0.09018629024029708</v>
+        <v>0.1236745921078505</v>
       </c>
       <c r="T2">
-        <v>0.09018629024029708</v>
+        <v>0.1236745921078504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H3">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>5.034276</v>
       </c>
       <c r="O3">
-        <v>0.1460492832155492</v>
+        <v>0.1565567708132977</v>
       </c>
       <c r="P3">
-        <v>0.1460492832155492</v>
+        <v>0.1565567708132977</v>
       </c>
       <c r="Q3">
-        <v>0.6213309032840001</v>
+        <v>1.322156380792</v>
       </c>
       <c r="R3">
-        <v>5.591978129556001</v>
+        <v>11.899407427128</v>
       </c>
       <c r="S3">
-        <v>0.1460492832155492</v>
+        <v>0.1565567708132977</v>
       </c>
       <c r="T3">
-        <v>0.1460492832155492</v>
+        <v>0.1565567708132977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,19 +655,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H4">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.826506333333333</v>
+        <v>2.239683666666667</v>
       </c>
       <c r="N4">
-        <v>8.479519</v>
+        <v>6.719051</v>
       </c>
       <c r="O4">
-        <v>0.24599916094442</v>
+        <v>0.2089501901544251</v>
       </c>
       <c r="P4">
-        <v>0.24599916094442</v>
+        <v>0.2089501901544251</v>
       </c>
       <c r="Q4">
-        <v>1.046543177148778</v>
+        <v>1.764630336619778</v>
       </c>
       <c r="R4">
-        <v>9.418888594339</v>
+        <v>15.881673029578</v>
       </c>
       <c r="S4">
-        <v>0.24599916094442</v>
+        <v>0.2089501901544251</v>
       </c>
       <c r="T4">
-        <v>0.24599916094442</v>
+        <v>0.2089501901544251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,19 +717,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H5">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.058323</v>
+        <v>2.783146333333333</v>
       </c>
       <c r="N5">
-        <v>9.174969000000001</v>
+        <v>8.349439</v>
       </c>
       <c r="O5">
-        <v>0.2661748473812093</v>
+        <v>0.2596522733244283</v>
       </c>
       <c r="P5">
-        <v>0.2661748473812093</v>
+        <v>0.2596522733244283</v>
       </c>
       <c r="Q5">
-        <v>1.132375693421</v>
+        <v>2.192820586293556</v>
       </c>
       <c r="R5">
-        <v>10.191381240789</v>
+        <v>19.735385276642</v>
       </c>
       <c r="S5">
-        <v>0.2661748473812093</v>
+        <v>0.2596522733244283</v>
       </c>
       <c r="T5">
-        <v>0.2661748473812093</v>
+        <v>0.2596522733244283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,19 +779,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H6">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.890749333333333</v>
+        <v>2.692186</v>
       </c>
       <c r="N6">
-        <v>8.672248</v>
+        <v>8.076558</v>
       </c>
       <c r="O6">
-        <v>0.2515904182185245</v>
+        <v>0.2511661735999985</v>
       </c>
       <c r="P6">
-        <v>0.2515904182185245</v>
+        <v>0.2511661735999985</v>
       </c>
       <c r="Q6">
-        <v>1.070329811743111</v>
+        <v>2.121153606702667</v>
       </c>
       <c r="R6">
-        <v>9.632968305687999</v>
+        <v>19.090382460324</v>
       </c>
       <c r="S6">
-        <v>0.2515904182185245</v>
+        <v>0.2511661735999985</v>
       </c>
       <c r="T6">
-        <v>0.2515904182185245</v>
+        <v>0.2511661735999985</v>
       </c>
     </row>
   </sheetData>
